--- a/Replication Package/Code and Data/(3) Core Results/IRFs/Output Data Python (New Model)/results_gcu.xlsx
+++ b/Replication Package/Code and Data/(3) Core Results/IRFs/Output Data Python (New Model)/results_gcu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,45 +456,50 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>ed_simul</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>log_w_simul</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>cf1_simul</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>cf10_simul</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>diffcpicf_simul</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>grpe_shock_series</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>grpf_shock_series</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>vu_shock_series</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>excess_demand_shock_series</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>gscpi_shock_series</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>gcu_shock_series</t>
         </is>
@@ -540,6 +545,9 @@
       <c r="M2" t="n">
         <v>0</v>
       </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -581,6 +589,9 @@
       <c r="M3" t="n">
         <v>0</v>
       </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -622,6 +633,9 @@
       <c r="M4" t="n">
         <v>0</v>
       </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -663,6 +677,9 @@
       <c r="M5" t="n">
         <v>0</v>
       </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -702,7 +719,10 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>17.97531934592867</v>
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -710,28 +730,28 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.08489687881306514</v>
+        <v>-4.931358860202738</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03128864188959482</v>
+        <v>-1.773924655291139</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.405265987906693</v>
       </c>
       <c r="E7" t="n">
-        <v>0.002356835413459544</v>
+        <v>-0.01027366429208904</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0009502773297298672</v>
+        <v>-0.01232839715050684</v>
       </c>
       <c r="G7" t="n">
-        <v>0.007822160472398705</v>
+        <v>-0.1336219214356354</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>-0.05387643191801919</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>-0.4434811638227847</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -743,6 +763,9 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -751,28 +774,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.5662169360215286</v>
+        <v>-59.18772475687766</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.1924304000996008</v>
+        <v>-22.31544729580019</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>4.222522189638619</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.009703599964673119</v>
+        <v>-0.1356368367293856</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.004722354228166692</v>
+        <v>-0.160297709042701</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.0402854395525015</v>
+        <v>-1.952571199831132</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>-0.7413625207316743</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>-6.022342987772832</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -784,6 +807,9 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -792,28 +818,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.07396997119187096</v>
+        <v>58.35671763898092</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.07167385469159182</v>
+        <v>7.922208294943442</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>-14.86801346647501</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.03355117335881189</v>
+        <v>0.008973087697058388</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.008484056946456426</v>
+        <v>-0.01440591494524868</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.05820390322539944</v>
+        <v>-2.895059728639553</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>-0.5932631551183586</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>-4.041790914036971</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -825,6 +851,9 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -833,28 +862,28 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.04425078593921306</v>
+        <v>-25.34502329448682</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.01899839951692387</v>
+        <v>-4.093839195303746</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>8.734235969538872</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.01988064996864082</v>
+        <v>-0.04834619603480771</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.006162880751853604</v>
+        <v>-0.07776847318146574</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.06295350310463041</v>
+        <v>-0.06809622422237427</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>-0.2993254408425741</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>-5.065250712862907</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -866,6 +895,9 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -874,28 +906,28 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.09729248823516397</v>
+        <v>-2.657177370872743</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.1022502270538458</v>
+        <v>-8.948311764454981</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>6.872153413610026</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.0170572280262481</v>
+        <v>-0.04949022551579061</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.008479520369357977</v>
+        <v>-0.08441141660864759</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.09869505575395011</v>
+        <v>-1.426164287857808</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-0.7519714273815282</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>-6.725225568718233</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -907,6 +939,9 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -915,28 +950,28 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.01814231910664711</v>
+        <v>7.149134295329495</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.03598427502279574</v>
+        <v>2.372399997689635</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>-13.32070803552672</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.02203088580908081</v>
+        <v>-0.02874308161587898</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.009495094233353988</v>
+        <v>-0.06653858087032385</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.04752308910661619</v>
+        <v>-1.495151638567685</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>-0.5970877345446468</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.26568553304972</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -948,6 +983,9 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -956,28 +994,28 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.02019447089136401</v>
+        <v>-7.557708154910582</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.01844389053447726</v>
+        <v>-2.14579115167215</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>3.083765862818616</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.01593374981433652</v>
+        <v>-0.04366757266955914</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.008199508003798754</v>
+        <v>-0.08543285125760031</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.01036802467319877</v>
+        <v>-0.6926489606256968</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>-0.5002494435419587</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-0.3088257997957582</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -989,6 +1027,9 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -997,28 +1038,28 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.02328191267749304</v>
+        <v>1.098547491817754</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.04102754571348644</v>
+        <v>-3.567324902502897</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1.982764268605065</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.01483203039001918</v>
+        <v>-0.03777341902155208</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.008987252065446377</v>
+        <v>-0.08268648252805592</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.02954583461251048</v>
+        <v>-1.031933988320791</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-0.6714955758090487</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-3.004160731012724</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1030,6 +1071,9 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1038,28 +1082,28 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.005784831931772077</v>
+        <v>-0.545738130418744</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.01267849062728314</v>
+        <v>0.7364736336918226</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>-3.124584208603912</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.01382105495374193</v>
+        <v>-0.03634220975134188</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.009028036169778078</v>
+        <v>-0.08405082785410278</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.009976322448262548</v>
+        <v>-0.8573710076107779</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>-0.5952951465850453</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>0.7751036821594111</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1071,6 +1115,9 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1079,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.01535979248605207</v>
+        <v>-2.00951849933205</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.01526896135847637</v>
+        <v>-1.97165846483161</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>-2.026661031483184</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.01081188336037549</v>
+        <v>-0.03860827226636054</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.008616611590202798</v>
+        <v>-0.08907462410243291</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0001761637506500109</v>
+        <v>-0.6576521967333039</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>-0.5840778779986191</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>-0.2419235827610235</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1112,6 +1159,9 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1120,28 +1170,28 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.01213660214529381</v>
+        <v>-0.1657030752084594</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.01935592195068743</v>
+        <v>-1.372188424773737</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-0.08736306847031061</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.01158688518243949</v>
+        <v>-0.03658362183223284</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.008976514623401316</v>
+        <v>-0.08948888179045407</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.006148980098146829</v>
+        <v>-0.9063743990434168</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-0.6464741765710231</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>-0.8510255789784088</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1153,6 +1203,9 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1161,28 +1214,28 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.01033156422092191</v>
+        <v>-1.020518811167547</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.009608291817889218</v>
+        <v>-0.3235178917827081</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>-0.9500092929236346</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.01099866989773768</v>
+        <v>-0.03683286480955456</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.008908292808091509</v>
+        <v>-0.09204017881837294</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0006041139514351406</v>
+        <v>-0.7160195504430941</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>-0.6089495767435422</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>0.2992112013967327</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1194,6 +1247,9 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1202,28 +1258,28 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.01160438928160925</v>
+        <v>-0.8764482322337991</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.01324293292860517</v>
+        <v>-1.412328272727113</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>-1.746013883152775</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.009763908950230273</v>
+        <v>-0.036855986201798</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.008853830490725046</v>
+        <v>-0.09423129939895744</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.0005479720601726159</v>
+        <v>-0.6668211722128214</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>-0.6222113955902742</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>-0.4125522559180141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1235,6 +1291,9 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1243,28 +1302,28 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.01066489967843991</v>
+        <v>-0.648115822902197</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.01248238071299869</v>
+        <v>-0.7806784195713145</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-1.362564128768183</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.01004026468036018</v>
+        <v>-0.03645120861384015</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.008995466785163084</v>
+        <v>-0.09585158895621293</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.002860498492169636</v>
+        <v>-0.7596138126688113</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-0.6380362366136488</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>-0.3145260554804141</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1276,6 +1335,9 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1284,28 +1346,28 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.01051639888846921</v>
+        <v>-0.8337261345321932</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.01000742984074225</v>
+        <v>-0.7200685012571625</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>-0.9169223613995487</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.009817073806260155</v>
+        <v>-0.0366087477526621</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.008957923975003024</v>
+        <v>-0.09793590429254341</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0002516263573806576</v>
+        <v>-0.6850658251114015</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>-0.6252982328857626</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>0.09722612770884242</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1317,6 +1379,9 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1325,28 +1390,28 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.01036928817461094</v>
+        <v>-0.7050279848385561</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.01154722436121603</v>
+        <v>-1.001706322168054</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>-1.349241939342738</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.009569149061928768</v>
+        <v>-0.0365441121092938</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.008985125437250722</v>
+        <v>-0.0996984742546398</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.0008213220631528573</v>
+        <v>-0.6854685982518428</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>-0.636528629595252</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>-0.2626758284878169</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -1358,6 +1423,9 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1366,28 +1434,28 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.01008749837123912</v>
+        <v>-0.7087065277143633</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.01048362805822441</v>
+        <v>-0.6974337494884754</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>-1.465646095435804</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.009566564161211828</v>
+        <v>-0.036574247590917</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.009031933754842047</v>
+        <v>-0.1014702405739257</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.001366256793065073</v>
+        <v>-0.6931420296532681</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>-0.6387486760707834</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>-0.1331505759084302</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1399,6 +1467,9 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1407,28 +1478,28 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.009943138156755493</v>
+        <v>-0.7208221107628724</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.01007170611613654</v>
+        <v>-0.7845457497871007</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>-1.24864955211652</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.009402827865239187</v>
+        <v>-0.03670776796052747</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.009024060763899186</v>
+        <v>-0.1032722958508329</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.0004872324137196286</v>
+        <v>-0.6694816145715489</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>-0.6367664474788817</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>-0.04132476800638674</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -1440,6 +1511,9 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1448,28 +1522,28 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.009797369360366705</v>
+        <v>-0.6844690524817898</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.01039739428517997</v>
+        <v>-0.8044920551430139</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>-1.265012980322387</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.009388400666716458</v>
+        <v>-0.03681815140040977</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.009049647618140309</v>
+        <v>-0.1049834684820374</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.0008079143989290841</v>
+        <v>-0.6803210074974618</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>-0.6424184264305759</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>-0.1369786440352596</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -1481,6 +1555,9 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1489,28 +1566,28 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.009676348962675519</v>
+        <v>-0.6910505218304558</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.009827984631835455</v>
+        <v>-0.7079545581862304</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>-1.386760960173445</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.009366546758336935</v>
+        <v>-0.03700394659678648</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.009063692446288426</v>
+        <v>-0.1067110947866135</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.000626029210915327</v>
+        <v>-0.6733423454255726</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>-0.6425750551515144</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>-0.0631379298993624</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -1522,6 +1599,9 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1530,28 +1610,28 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.009549890957136958</v>
+        <v>-0.6808679640619542</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.009795727471490776</v>
+        <v>-0.7567269298196057</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>-1.366965881817493</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.009277366451667027</v>
+        <v>-0.03721741971821284</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.009066535992150477</v>
+        <v>-0.1084132646967684</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.0004566389649488575</v>
+        <v>-0.6656921407291633</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>-0.6436876944687486</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>-0.07028779358071946</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -1563,6 +1643,9 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1571,28 +1654,28 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.009476267344788453</v>
+        <v>-0.6751913330044786</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.009749033146141161</v>
+        <v>-0.7332144704715712</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>-1.327851414594307</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.009263830205890878</v>
+        <v>-0.0374644573821787</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.009079629276381585</v>
+        <v>-0.1101012430292796</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.0005397070184226527</v>
+        <v>-0.6705160423811973</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>-0.6461755613205236</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>-0.0811153888335564</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -1604,6 +1687,9 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1612,28 +1698,28 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.009411304820458238</v>
+        <v>-0.6749802132291272</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.009521277526999371</v>
+        <v>-0.7138367322814115</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>-1.359861292374133</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.009242776632854064</v>
+        <v>-0.03775362548970682</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.009084280388346484</v>
+        <v>-0.1117886935623524</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.0003351050274002336</v>
+        <v>-0.6669556004518844</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>-0.6467124071319665</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>-0.04761216519224287</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -1645,6 +1731,9 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1653,28 +1742,28 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.009341925893383117</v>
+        <v>-0.6691840424255688</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.00951054677015779</v>
+        <v>-0.7284722554271188</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>-1.38983132077272</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.009210846027533845</v>
+        <v>-0.03806704816143382</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.009088324501847546</v>
+        <v>-0.1134616536684163</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.0002775994703603391</v>
+        <v>-0.6656780715919429</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>-0.6482016349467874</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>-0.05972025157435423</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -1686,6 +1775,9 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1694,28 +1786,28 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.009302226406160772</v>
+        <v>-0.6687431199309906</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.009424897768160394</v>
+        <v>-0.7127571901267695</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>-1.381395031584572</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.009195942402786714</v>
+        <v>-0.03841427576255259</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.009093894142377199</v>
+        <v>-0.1151335114682438</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.000274072351197651</v>
+        <v>-0.6665278848267715</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>-0.6495576596056863</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>-0.05637802134755454</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -1727,6 +1819,9 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1735,28 +1830,28 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.009264245022771013</v>
+        <v>-0.6675183551040433</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.009343183366683156</v>
+        <v>-0.7124113757697593</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>-1.384732542072322</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.009177208200816894</v>
+        <v>-0.03879006933901227</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.009096042579532651</v>
+        <v>-0.1168023073560039</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.0001861461521093007</v>
+        <v>-0.6654843771968724</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>-0.6504724823613326</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>-0.04635334602006747</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -1768,6 +1863,9 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1776,28 +1874,28 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.009232408921918372</v>
+        <v>-0.6659828660143922</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.009322510836793739</v>
+        <v>-0.7145434596634607</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>-1.405568115660398</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.009165121696874152</v>
+        <v>-0.03919080692579675</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.009098788951945894</v>
+        <v>-0.1184672645210399</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.0001575080525947053</v>
+        <v>-0.6662135146660025</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>-0.6517800508708089</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>-0.05009046979489273</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -1809,6 +1907,9 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Replication Package/Code and Data/(3) Core Results/IRFs/Output Data Python (New Model)/results_gcu.xlsx
+++ b/Replication Package/Code and Data/(3) Core Results/IRFs/Output Data Python (New Model)/results_gcu.xlsx
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>5</v>
+        <v>0.04386139568535351</v>
       </c>
     </row>
     <row r="7">
@@ -730,28 +730,28 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>-4.931358860202738</v>
+        <v>-0.04325925644676523</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.773924655291139</v>
+        <v>-0.01556136224434579</v>
       </c>
       <c r="D7" t="n">
-        <v>0.405265987906693</v>
+        <v>0.003555106370678231</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.01027366429208904</v>
+        <v>-9.01234509307609e-05</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.01232839715050684</v>
+        <v>-0.0001081481411169131</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1336219214356354</v>
+        <v>-0.001172168793665125</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.05387643191801919</v>
+        <v>-0.0004726190996942498</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.4434811638227847</v>
+        <v>-0.003890340561086449</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -774,28 +774,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>-59.18772475687766</v>
+        <v>-0.519211243055441</v>
       </c>
       <c r="C8" t="n">
-        <v>-22.31544729580019</v>
+        <v>-0.1957573327473488</v>
       </c>
       <c r="D8" t="n">
-        <v>4.222522189638619</v>
+        <v>0.03704114330998495</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.1356368367293856</v>
+        <v>-0.001189844193059454</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.160297709042701</v>
+        <v>-0.001406176248755515</v>
       </c>
       <c r="G8" t="n">
-        <v>-1.952571199831132</v>
+        <v>-0.01712849959992375</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.7413625207316743</v>
+        <v>-0.006503438973620611</v>
       </c>
       <c r="I8" t="n">
-        <v>-6.022342987772832</v>
+        <v>-0.05282967374792364</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -818,28 +818,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>58.35671763898092</v>
+        <v>0.5119214166523581</v>
       </c>
       <c r="C9" t="n">
-        <v>7.922208294943442</v>
+        <v>0.06949582254526079</v>
       </c>
       <c r="D9" t="n">
-        <v>-14.86801346647501</v>
+        <v>-0.130426364341645</v>
       </c>
       <c r="E9" t="n">
-        <v>0.008973087697058388</v>
+        <v>7.87144300000109e-05</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.01440591494524868</v>
+        <v>-0.0001263727071246202</v>
       </c>
       <c r="G9" t="n">
-        <v>-2.895059728639553</v>
+        <v>-0.02539627205811831</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.5932631551183586</v>
+        <v>-0.005204269998437517</v>
       </c>
       <c r="I9" t="n">
-        <v>-4.041790914036971</v>
+        <v>-0.03545571811160844</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>-25.34502329448682</v>
+        <v>-0.2223336190747978</v>
       </c>
       <c r="C10" t="n">
-        <v>-4.093839195303746</v>
+        <v>-0.03591230016348539</v>
       </c>
       <c r="D10" t="n">
-        <v>8.734235969538872</v>
+        <v>0.07661915597383834</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.04834619603480771</v>
+        <v>-0.0004241063268328742</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.07776847318146574</v>
+        <v>-0.0006822067548116146</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.06809622422237427</v>
+        <v>-0.0005973590870592255</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.2993254408425741</v>
+        <v>-0.002625766319897805</v>
       </c>
       <c r="I10" t="n">
-        <v>-5.065250712862907</v>
+        <v>-0.04443379315247979</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -906,28 +906,28 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>-2.657177370872743</v>
+        <v>-0.02330950161400338</v>
       </c>
       <c r="C11" t="n">
-        <v>-8.948311764454981</v>
+        <v>-0.07849708860333275</v>
       </c>
       <c r="D11" t="n">
-        <v>6.872153413610026</v>
+        <v>0.06028444801696042</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.04949022551579061</v>
+        <v>-0.0004341420727810944</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.08441141660864759</v>
+        <v>-0.000740480508846623</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.426164287857808</v>
+        <v>-0.01251071122841035</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.7519714273815282</v>
+        <v>-0.006596503264092257</v>
       </c>
       <c r="I11" t="n">
-        <v>-6.725225568718233</v>
+        <v>-0.0589955559485614</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -950,28 +950,28 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>7.149134295329495</v>
+        <v>0.06271420162703557</v>
       </c>
       <c r="C12" t="n">
-        <v>2.372399997689635</v>
+        <v>0.02081135500451933</v>
       </c>
       <c r="D12" t="n">
-        <v>-13.32070803552672</v>
+        <v>-0.1168529691910611</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.02874308161587898</v>
+        <v>-0.0002521423351940959</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.06653858087032385</v>
+        <v>-0.0005836950047790341</v>
       </c>
       <c r="G12" t="n">
-        <v>-1.495151638567685</v>
+        <v>-0.01311588752576438</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.5970877345446468</v>
+        <v>-0.005237820276746815</v>
       </c>
       <c r="I12" t="n">
-        <v>1.26568553304972</v>
+        <v>0.01110294679566425</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -994,28 +994,28 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>-7.557708154910582</v>
+        <v>-0.0662983255713912</v>
       </c>
       <c r="C13" t="n">
-        <v>-2.14579115167215</v>
+        <v>-0.01882347895232453</v>
       </c>
       <c r="D13" t="n">
-        <v>3.083765862818616</v>
+        <v>0.02705165494201458</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.04366757266955914</v>
+        <v>-0.0003830641366956928</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.08543285125760031</v>
+        <v>-0.0007494408187075121</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.6926489606256968</v>
+        <v>-0.006076110026610506</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.5002494435419587</v>
+        <v>-0.004388327756914352</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.3088257997957582</v>
+        <v>-0.002709106120537524</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1038,28 +1038,28 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>1.098547491817754</v>
+        <v>0.009636765243554222</v>
       </c>
       <c r="C14" t="n">
-        <v>-3.567324902502897</v>
+        <v>-0.03129356981737895</v>
       </c>
       <c r="D14" t="n">
-        <v>1.982764268605065</v>
+        <v>0.01739336162721346</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.03777341902155208</v>
+        <v>-0.0003313589756185913</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.08268648252805592</v>
+        <v>-0.0007253489055986266</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.031933988320791</v>
+        <v>-0.009052412996580637</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.6714955758090487</v>
+        <v>-0.005890546630304997</v>
       </c>
       <c r="I14" t="n">
-        <v>-3.004160731012724</v>
+        <v>-0.02635333650507</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1082,28 +1082,28 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.545738130418744</v>
+        <v>-0.004787367215776314</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7364736336918226</v>
+        <v>0.006460552291837412</v>
       </c>
       <c r="D15" t="n">
-        <v>-3.124584208603912</v>
+        <v>-0.02740972486515668</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.03634220975134188</v>
+        <v>-0.0003188040083967441</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.08405082785410278</v>
+        <v>-0.0007373173236380673</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.8573710076107779</v>
+        <v>-0.007521097802793315</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.5952951465850453</v>
+        <v>-0.005222095194787437</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7751036821594111</v>
+        <v>0.006799425860073668</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>-2.00951849933205</v>
+        <v>-0.01762805720724817</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.97165846483161</v>
+        <v>-0.01729593841647119</v>
       </c>
       <c r="D16" t="n">
-        <v>-2.026661031483184</v>
+        <v>-0.01777843628439413</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.03860827226636054</v>
+        <v>-0.0003386825413205402</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.08907462410243291</v>
+        <v>-0.0007813874666561878</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.6576521967333039</v>
+        <v>-0.00576910864485228</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.5840778779986191</v>
+        <v>-0.005123694183591813</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.2419235827610235</v>
+        <v>-0.002122221197819938</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1170,28 +1170,28 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.1657030752084594</v>
+        <v>-0.001453593629599627</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.372188424773737</v>
+        <v>-0.01203721989077257</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.08736306847031061</v>
+        <v>-0.0007663732228925905</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.03658362183223284</v>
+        <v>-0.0003209217425573806</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.08948888179045407</v>
+        <v>-0.0007850214507301869</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.9063743990434168</v>
+        <v>-0.00795096923110356</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.6464741765710231</v>
+        <v>-0.005671051931788946</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.8510255789784088</v>
+        <v>-0.007465433931585818</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1214,28 +1214,28 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>-1.020518811167547</v>
+        <v>-0.008952275876193268</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.3235178917827081</v>
+        <v>-0.002837989252554553</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.9500092929236346</v>
+        <v>-0.0083337467003373</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.03683286480955456</v>
+        <v>-0.0003231081715274012</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.09204017881837294</v>
+        <v>-0.00080740214042067</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.7160195504430941</v>
+        <v>-0.006281123364086696</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.6089495767435422</v>
+        <v>-0.005341875667595407</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2992112013967327</v>
+        <v>0.002624764179590411</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1258,28 +1258,28 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.8764482322337991</v>
+        <v>-0.007688448542347053</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.412328272727113</v>
+        <v>-0.01238933784153915</v>
       </c>
       <c r="D19" t="n">
-        <v>-1.746013883152775</v>
+        <v>-0.01531652116021688</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.036855986201798</v>
+        <v>-0.0003233109988341983</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.09423129939895744</v>
+        <v>-0.0008266232617765377</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.6668211722128214</v>
+        <v>-0.005849541457159561</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.6222113955902742</v>
+        <v>-0.005458212044384204</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.4125522559180141</v>
+        <v>-0.00361902354754105</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1302,28 +1302,28 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.648115822902197</v>
+        <v>-0.005685452911650351</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.7806784195713145</v>
+        <v>-0.006848329012766771</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.362564128768183</v>
+        <v>-0.01195279287971406</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.03645120861384015</v>
+        <v>-0.0003197601768442018</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.09585158895621293</v>
+        <v>-0.0008408368940556636</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.7596138126688113</v>
+        <v>-0.006663544401105343</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.6380362366136488</v>
+        <v>-0.005597031967141015</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.3145260554804141</v>
+        <v>-0.00275911035455598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1346,28 +1346,28 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.8337261345321932</v>
+        <v>-0.00731367837598736</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.7200685012571625</v>
+        <v>-0.006316641890839975</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.9169223613995487</v>
+        <v>-0.00804349890121887</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.0366087477526621</v>
+        <v>-0.0003211421541449617</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.09793590429254341</v>
+        <v>-0.0008591210899956319</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.6850658251114015</v>
+        <v>-0.006009588645144872</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.6252982328857626</v>
+        <v>-0.005485290642790951</v>
       </c>
       <c r="I21" t="n">
-        <v>0.09722612770884242</v>
+        <v>0.0008528947316784477</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1390,28 +1390,28 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.7050279848385561</v>
+        <v>-0.006184702282450264</v>
       </c>
       <c r="C22" t="n">
-        <v>-1.001706322168054</v>
+        <v>-0.008787247471426642</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.349241939342738</v>
+        <v>-0.01183592691535711</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.0365441121092938</v>
+        <v>-0.0003205751522391308</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.0996984742546398</v>
+        <v>-0.0008745828457017576</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.6854685982518428</v>
+        <v>-0.006013121883561736</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.636528629595252</v>
+        <v>-0.005583806817546631</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.2626758284878169</v>
+        <v>-0.002304265690056439</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -1434,28 +1434,28 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.7087065277143633</v>
+        <v>-0.006216971487374524</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.6974337494884754</v>
+        <v>-0.006118083530126744</v>
       </c>
       <c r="D23" t="n">
-        <v>-1.465646095435804</v>
+        <v>-0.01285705666532065</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.036574247590917</v>
+        <v>-0.0003208395090958596</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.1014702405739257</v>
+        <v>-0.0008901252744201939</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.6931420296532681</v>
+        <v>-0.0060804353657542</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.6387486760707834</v>
+        <v>-0.005603281684927261</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.1331505759084302</v>
+        <v>-0.001168034019130472</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1478,28 +1478,28 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.7208221107628724</v>
+        <v>-0.00632325276378441</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.7845457497871007</v>
+        <v>-0.006882254312934871</v>
       </c>
       <c r="D24" t="n">
-        <v>-1.24864955211652</v>
+        <v>-0.01095350241554442</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.03670776796052747</v>
+        <v>-0.0003220107870485676</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.1032722958508329</v>
+        <v>-0.000905933406329655</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.6694816145715489</v>
+        <v>-0.005872879600158407</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.6367664474788817</v>
+        <v>-0.005585893022405617</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.04132476800638674</v>
+        <v>-0.0003625124002267152</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -1522,28 +1522,28 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.6844690524817898</v>
+        <v>-0.006004353589056551</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.8044920551430139</v>
+        <v>-0.00705722887127019</v>
       </c>
       <c r="D25" t="n">
-        <v>-1.265012980322387</v>
+        <v>-0.01109704697540571</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.03681815140040977</v>
+        <v>-0.0003229791013953252</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.1049834684820374</v>
+        <v>-0.0009209442903022963</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.6803210074974618</v>
+        <v>-0.005967965780580899</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.6424184264305759</v>
+        <v>-0.005635473759446726</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.1369786440352596</v>
+        <v>-0.00120161490129474</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -1566,28 +1566,28 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.6910505218304558</v>
+        <v>-0.006062088075315125</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.7079545581862304</v>
+        <v>-0.006210375000771174</v>
       </c>
       <c r="D26" t="n">
-        <v>-1.386760960173445</v>
+        <v>-0.01216505423903366</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.03700394659678648</v>
+        <v>-0.0003246089487202685</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.1067110947866135</v>
+        <v>-0.0009360995104905842</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.6733423454255726</v>
+        <v>-0.005906747008882996</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.6425750551515144</v>
+        <v>-0.00563684775030768</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.0631379298993624</v>
+        <v>-0.0005538635452140093</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -1610,28 +1610,28 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.6808679640619542</v>
+        <v>-0.005972763836240481</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.7567269298196057</v>
+        <v>-0.006638219858916087</v>
       </c>
       <c r="D27" t="n">
-        <v>-1.366965881817493</v>
+        <v>-0.01199140628615503</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.03721741971821284</v>
+        <v>-0.0003264815945296824</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.1084132646967684</v>
+        <v>-0.0009510314200811854</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.6656921407291633</v>
+        <v>-0.005839637277830367</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.6436876944687486</v>
+        <v>-0.005646608132977339</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.07028779358071946</v>
+        <v>-0.0006165841452188802</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.6751913330044786</v>
+        <v>-0.00592296684404614</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.7332144704715712</v>
+        <v>-0.006431962002316103</v>
       </c>
       <c r="D28" t="n">
-        <v>-1.327851414594307</v>
+        <v>-0.01164828326137548</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.0374644573821787</v>
+        <v>-0.0003286486778753607</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.1101012430292796</v>
+        <v>-0.0009658388371913008</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.6705160423811973</v>
+        <v>-0.005881953889651789</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.6461755613205236</v>
+        <v>-0.005668432395456975</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.0811153888335564</v>
+        <v>-0.0007115668331599814</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -1698,28 +1698,28 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.6749802132291272</v>
+        <v>-0.005921114842445401</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.7138367322814115</v>
+        <v>-0.006261975073866946</v>
       </c>
       <c r="D29" t="n">
-        <v>-1.359861292374133</v>
+        <v>-0.01192908284440362</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.03775362548970682</v>
+        <v>-0.000331185341232136</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.1117886935623524</v>
+        <v>-0.0009806416242974143</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.6669556004518844</v>
+        <v>-0.005850720699196524</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.6467124071319665</v>
+        <v>-0.005673141756768519</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.04761216519224287</v>
+        <v>-0.0004176672033866773</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -1742,28 +1742,28 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.6691840424255688</v>
+        <v>-0.005870269214230448</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.7284722554271188</v>
+        <v>-0.006390361968218152</v>
       </c>
       <c r="D30" t="n">
-        <v>-1.38983132077272</v>
+        <v>-0.01219198829926196</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.03806704816143382</v>
+        <v>-0.0003339347723964116</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.1134616536684163</v>
+        <v>-0.0009953172973329904</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.6656780715919429</v>
+        <v>-0.005839513859431452</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.6482016349467874</v>
+        <v>-0.005686205678858817</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.05972025157435423</v>
+        <v>-0.0005238827169463259</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -1786,28 +1786,28 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.6687431199309906</v>
+        <v>-0.005866401319030193</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.7127571901267695</v>
+        <v>-0.006252505028746192</v>
       </c>
       <c r="D31" t="n">
-        <v>-1.381395031584572</v>
+        <v>-0.01211798281562247</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.03841427576255259</v>
+        <v>-0.0003369807498375209</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.1151335114682438</v>
+        <v>-0.001009983300630566</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.6665278848267715</v>
+        <v>-0.005846968658341747</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.6495576596056863</v>
+        <v>-0.005698101105683431</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.05637802134755454</v>
+        <v>-0.0004945637404564817</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -1830,28 +1830,28 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.6675183551040433</v>
+        <v>-0.005855657340090949</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.7124113757697593</v>
+        <v>-0.00624947144867689</v>
       </c>
       <c r="D32" t="n">
-        <v>-1.384732542072322</v>
+        <v>-0.0121472603892439</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.03879006933901227</v>
+        <v>-0.0003402773159881436</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.1168023073560039</v>
+        <v>-0.001024622443980793</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.6654843771968724</v>
+        <v>-0.005837814718130611</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.6504724823613326</v>
+        <v>-0.005706126186256906</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.04635334602006747</v>
+        <v>-0.0004066244902252566</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -1874,28 +1874,28 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.6659828660143922</v>
+        <v>-0.005842187601184602</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.7145434596634607</v>
+        <v>-0.006268174683736096</v>
       </c>
       <c r="D33" t="n">
-        <v>-1.405568115660398</v>
+        <v>-0.01233003585673952</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.03919080692579675</v>
+        <v>-0.000343792697960133</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.1184672645210399</v>
+        <v>-0.001039227912983755</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.6662135146660025</v>
+        <v>-0.005844210915539117</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.6517800508708089</v>
+        <v>-0.005717596542212876</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.05009046979489273</v>
+        <v>-0.0004394075831478089</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>

--- a/Replication Package/Code and Data/(3) Core Results/IRFs/Output Data Python (New Model)/results_gcu.xlsx
+++ b/Replication Package/Code and Data/(3) Core Results/IRFs/Output Data Python (New Model)/results_gcu.xlsx
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0.04386139568535351</v>
+        <v>0.03187866994171053</v>
       </c>
     </row>
     <row r="7">
@@ -730,28 +730,28 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.04325925644676523</v>
+        <v>0.2836051557946423</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.01556136224434579</v>
+        <v>0.1020193809645233</v>
       </c>
       <c r="D7" t="n">
-        <v>0.003555106370678231</v>
+        <v>-0.02330706949074521</v>
       </c>
       <c r="E7" t="n">
-        <v>-9.01234509307609e-05</v>
+        <v>0.0005908440745721714</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.0001081481411169131</v>
+        <v>0.0007090128894866058</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.001172168793665125</v>
+        <v>0.007684670071805496</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.0004726190996942498</v>
+        <v>0.00309846318244645</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.003890340561086449</v>
+        <v>0.02550484524113083</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -774,28 +774,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.519211243055441</v>
+        <v>-0.4278610439600498</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.1957573327473488</v>
+        <v>-0.09404054200672179</v>
       </c>
       <c r="D8" t="n">
-        <v>0.03704114330998495</v>
+        <v>0.08105862390903899</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.001189844193059454</v>
+        <v>-0.0004104073159953883</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.001406176248755515</v>
+        <v>-0.0003606397204135187</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.01712849959992375</v>
+        <v>0.008538906746672011</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.006503438973620611</v>
+        <v>0.000802280258228093</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.05282967374792364</v>
+        <v>0.00199470973945038</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -818,28 +818,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5119214166523581</v>
+        <v>-0.3138471111928967</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06949582254526079</v>
+        <v>-0.1715282153208846</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.130426364341645</v>
+        <v>-0.02552885754040674</v>
       </c>
       <c r="E9" t="n">
-        <v>7.87144300000109e-05</v>
+        <v>-0.001045646957230427</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.0001263727071246202</v>
+        <v>-0.001145257498395761</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.02539627205811831</v>
+        <v>-0.02303285465918155</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.005204269998437517</v>
+        <v>-0.006647234825797503</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.03545571811160844</v>
+        <v>-0.04088734409077076</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.2223336190747978</v>
+        <v>0.4834579725691868</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.03591230016348539</v>
+        <v>0.1013676080491798</v>
       </c>
       <c r="D10" t="n">
-        <v>0.07661915597383834</v>
+        <v>-0.1546824560500919</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.0004241063268328742</v>
+        <v>0.0001448870881711472</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.0006822067548116146</v>
+        <v>6.338743302720636e-05</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.0005973590870592255</v>
+        <v>-0.02057940926299008</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.002625766319897805</v>
+        <v>-0.002790320210975924</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.04443379315247979</v>
+        <v>-0.01554544207847582</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -906,28 +906,28 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.02330950161400338</v>
+        <v>-0.09987456578938517</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.07849708860333275</v>
+        <v>-0.006649480556612302</v>
       </c>
       <c r="D11" t="n">
-        <v>0.06028444801696042</v>
+        <v>0.1353098559818302</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.0004341420727810944</v>
+        <v>-9.431939367208421e-05</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.000740480508846623</v>
+        <v>-0.0001862989814462566</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.01251071122841035</v>
+        <v>0.00709896835121401</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.006596503264092257</v>
+        <v>0.000109081054853109</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.0589955559485614</v>
+        <v>-0.05039732753056522</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -950,28 +950,28 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.06271420162703557</v>
+        <v>0.04231160548896538</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02081135500451933</v>
+        <v>-0.02680372887826139</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.1168529691910611</v>
+        <v>0.0509602127706309</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.0002521423351940959</v>
+        <v>1.041783640939024e-05</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.0005836950047790341</v>
+        <v>-8.051996772384311e-05</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.01311588752576438</v>
+        <v>-0.0009577735223061502</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.005237820276746815</v>
+        <v>-0.002556690313525975</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01110294679566425</v>
+        <v>-0.03444236092331664</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -994,28 +994,28 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.0662983255713912</v>
+        <v>0.08472768491998474</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.01882347895232453</v>
+        <v>0.06901393480897262</v>
       </c>
       <c r="D13" t="n">
-        <v>0.02705165494201458</v>
+        <v>-0.1134719643515858</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.0003830641366956928</v>
+        <v>0.0002037172946502394</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.0007494408187075121</v>
+        <v>0.0001312992445761187</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.006076110026610506</v>
+        <v>0.0009603781992757695</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.004388327756914352</v>
+        <v>0.0001248652767753401</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.002709106120537524</v>
+        <v>0.05726493801500122</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1038,28 +1038,28 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.009636765243554222</v>
+        <v>-0.01925964324867313</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.03129356981737895</v>
+        <v>0.02046815136640699</v>
       </c>
       <c r="D14" t="n">
-        <v>0.01739336162721346</v>
+        <v>0.0259194958084237</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.0003313589756185913</v>
+        <v>0.0001436014029494368</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.0007253489055986266</v>
+        <v>8.31501364544359e-05</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.009052412996580637</v>
+        <v>0.007539882177731888</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.005890546630304997</v>
+        <v>0.001455216414304334</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.02635333650507</v>
+        <v>0.03458662844811656</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1082,28 +1082,28 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.004787367215776314</v>
+        <v>0.0330520562231367</v>
       </c>
       <c r="C15" t="n">
-        <v>0.006460552291837412</v>
+        <v>0.01428015885016787</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.02740972486515668</v>
+        <v>0.03512831382652302</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.0003188040083967441</v>
+        <v>0.000210072147542473</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.0007373173236380673</v>
+        <v>0.0001657802770122776</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.007521097802793315</v>
+        <v>0.005124144450651439</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.005222095194787437</v>
+        <v>0.0006967052676777634</v>
       </c>
       <c r="I15" t="n">
-        <v>0.006799425860073668</v>
+        <v>0.01214066068560751</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.01762805720724817</v>
+        <v>0.01643141514517523</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.01729593841647119</v>
+        <v>0.03855979223492063</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.01777843628439413</v>
+        <v>-0.01919738539196495</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.0003386825413205402</v>
+        <v>0.0002344073063783837</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.0007813874666561878</v>
+        <v>0.0002068588148752157</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.00576910864485228</v>
+        <v>0.007228242284459008</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.005123694183591813</v>
+        <v>0.001838795076013529</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.002122221197819938</v>
+        <v>0.03653828283742318</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1170,28 +1170,28 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.001453593629599627</v>
+        <v>0.003686025241743353</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.01203721989077257</v>
+        <v>0.01119933931863584</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.0007663732228925905</v>
+        <v>-0.01130197939444574</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.0003209217425573806</v>
+        <v>0.0002283959713900706</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.0007850214507301869</v>
+        <v>0.0002160738779795741</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.00795096923110356</v>
+        <v>0.007230716883397641</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.005671051931788946</v>
+        <v>0.002071718214764084</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.007465433931585818</v>
+        <v>0.02016648224325706</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1214,28 +1214,28 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.008952275876193268</v>
+        <v>0.01365651997612414</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.002837989252554553</v>
+        <v>0.01470637753698877</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.0083337467003373</v>
+        <v>0.01279004280204769</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.0003231081715274012</v>
+        <v>0.0002470939024285939</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.00080740214042067</v>
+        <v>0.0002502151779198845</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.006281123364086696</v>
+        <v>0.004412044444740093</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.005341875667595407</v>
+        <v>0.001838624584852723</v>
       </c>
       <c r="I18" t="n">
-        <v>0.002624764179590411</v>
+        <v>0.01214653480744639</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1258,28 +1258,28 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.007688448542347053</v>
+        <v>0.006298203196571798</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.01238933784153915</v>
+        <v>0.01698916240558343</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.01531652116021688</v>
+        <v>0.007251998339838762</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.0003233109988341983</v>
+        <v>0.0002482372209522443</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.0008266232617765377</v>
+        <v>0.0002659606859113139</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.005849541457159561</v>
+        <v>0.005498454090309173</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.005458212044384204</v>
+        <v>0.002285269322822458</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.00361902354754105</v>
+        <v>0.01523952342338073</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1302,28 +1302,28 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.005685452911650351</v>
+        <v>0.005834762461208666</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.006848329012766771</v>
+        <v>0.006544752342231874</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.01195279287971406</v>
+        <v>-0.002227672341248352</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.0003197601768442018</v>
+        <v>0.000248991278310252</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.0008408368940556636</v>
+        <v>0.0002805475920643356</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.006663544401105343</v>
+        <v>0.005112102212427859</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.005597031967141015</v>
+        <v>0.002252250864521012</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.00275911035455598</v>
+        <v>0.005131665616400972</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1346,28 +1346,28 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.00731367837598736</v>
+        <v>0.006395267241296509</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.006316641890839975</v>
+        <v>0.009914510973581902</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.00804349890121887</v>
+        <v>0.003261087810262813</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.0003211421541449617</v>
+        <v>0.0002517304740928186</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.0008591210899956319</v>
+        <v>0.0002965357601675769</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.006009588645144872</v>
+        <v>0.003898949540234398</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.005485290642790951</v>
+        <v>0.002251331800933994</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0008528947316784477</v>
+        <v>0.004807983931198854</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1390,28 +1390,28 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.006184702282450264</v>
+        <v>0.004422326626181243</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.008787247471426642</v>
+        <v>0.007974080856067895</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.01183592691535711</v>
+        <v>0.009087856523842239</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.0003205751522391308</v>
+        <v>0.0002502726577697825</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.0008745828457017576</v>
+        <v>0.00030759157673303</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.006013121883561736</v>
+        <v>0.004014566241378875</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.005583806817546631</v>
+        <v>0.002413490770492507</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.002304265690056439</v>
+        <v>0.005943582199626182</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -1434,28 +1434,28 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.006216971487374524</v>
+        <v>0.004680304269000964</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.006118083530126744</v>
+        <v>0.005108784065172654</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.01285705666532065</v>
+        <v>0.005559600501383967</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.0003208395090958596</v>
+        <v>0.0002500655357858175</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.0008901252744201939</v>
+        <v>0.0003192923374055324</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.0060804353657542</v>
+        <v>0.003659458258814282</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.005603281684927261</v>
+        <v>0.002382951632493243</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.001168034019130472</v>
+        <v>0.001887077968954409</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1478,28 +1478,28 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.00632325276378441</v>
+        <v>0.004282531805397729</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.006882254312934871</v>
+        <v>0.006482786550691311</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.01095350241554442</v>
+        <v>0.004593630339785283</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.0003220107870485676</v>
+        <v>0.0002494339581123852</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.000905933406329655</v>
+        <v>0.0003299986669190268</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.005872879600158407</v>
+        <v>0.003414346183863858</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.005585893022405617</v>
+        <v>0.002431240805987945</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.0003625124002267152</v>
+        <v>0.002257938398950582</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -1522,28 +1522,28 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.006004353589056551</v>
+        <v>0.003796404983213554</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.00705722887127019</v>
+        <v>0.004948624852273818</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.01109704697540571</v>
+        <v>0.007486947547840265</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.0003229791013953252</v>
+        <v>0.0002481364301299849</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.0009209442903022963</v>
+        <v>0.0003394896793770606</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.005967965780580899</v>
+        <v>0.00336409361951364</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.005635473759446726</v>
+        <v>0.002487836156608861</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.00120161490129474</v>
+        <v>0.002229619540817022</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -1566,28 +1566,28 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.006062088075315125</v>
+        <v>0.003739934416821307</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.006210375000771174</v>
+        <v>0.00442034893698581</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.01216505423903366</v>
+        <v>0.007991573802034161</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.0003246089487202685</v>
+        <v>0.0002471868155251567</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.0009360995104905842</v>
+        <v>0.0003488395154191139</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.005906747008882996</v>
+        <v>0.003113314350142746</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.00563684775030768</v>
+        <v>0.002487238705226967</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.0005538635452140093</v>
+        <v>0.001225569859902024</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -1610,28 +1610,28 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.005972763836240481</v>
+        <v>0.003499518703196257</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.006638219858916087</v>
+        <v>0.004647501225147701</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.01199140628615503</v>
+        <v>0.007050065749296818</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.0003264815945296824</v>
+        <v>0.0002460919348876417</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.0009510314200811854</v>
+        <v>0.0003575883121771045</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.005839637277830367</v>
+        <v>0.00307136887402777</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.005646608132977339</v>
+        <v>0.002525146753653468</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.0006165841452188802</v>
+        <v>0.001465357132460378</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.00592296684404614</v>
+        <v>0.003357662419141097</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.006431962002316103</v>
+        <v>0.003935962636254429</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.01164828326137548</v>
+        <v>0.007537612438778415</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.0003286486778753607</v>
+        <v>0.0002450606801601057</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.0009658388371913008</v>
+        <v>0.0003659824682249573</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.005881953889651789</v>
+        <v>0.003036618880150805</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.005668432395456975</v>
+        <v>0.002547511342838379</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.0007115668331599814</v>
+        <v>0.001073763228801581</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -1698,28 +1698,28 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.005921114842445401</v>
+        <v>0.003244418447325233</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.006261975073866946</v>
+        <v>0.003881657648204077</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.01192908284440362</v>
+        <v>0.008328384066556404</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.000331185341232136</v>
+        <v>0.0002441298789113325</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.0009806416242974143</v>
+        <v>0.0003740935143432704</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.005850720699196524</v>
+        <v>0.002930776020923683</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.005673141756768519</v>
+        <v>0.002559211334986406</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.0004176672033866773</v>
+        <v>0.0008572739921343638</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -1742,28 +1742,28 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.005870269214230448</v>
+        <v>0.003128044559952472</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.006390361968218152</v>
+        <v>0.003774129258575472</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.01219198829926196</v>
+        <v>0.008276161928543403</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.0003339347723964116</v>
+        <v>0.000243262059610827</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.0009953172973329904</v>
+        <v>0.0003819136257431516</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.005839513859431452</v>
+        <v>0.002905138386144267</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.005686205678858817</v>
+        <v>0.002581686897156591</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.0005238827169463259</v>
+        <v>0.0009464983419026738</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -1786,28 +1786,28 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.005866401319030193</v>
+        <v>0.003062577256334889</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.006252505028746192</v>
+        <v>0.00350424332567403</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.01211798281562247</v>
+        <v>0.008180372548433366</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.0003369807498375209</v>
+        <v>0.000242554552659942</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.001009983300630566</v>
+        <v>0.0003895700688839888</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.005846968658341747</v>
+        <v>0.002874191861970373</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.005698101105683431</v>
+        <v>0.002594063619848374</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.0004945637404564817</v>
+        <v>0.0007026293431492319</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -1830,28 +1830,28 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.005855657340090949</v>
+        <v>0.002992848109751215</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.00624947144867689</v>
+        <v>0.003488117840989256</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.0121472603892439</v>
+        <v>0.008484235295493683</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.0003402773159881436</v>
+        <v>0.0002419709738074065</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.001024622443980793</v>
+        <v>0.0003970521891583668</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.005837814718130611</v>
+        <v>0.002841806265949249</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.005706126186256906</v>
+        <v>0.00260649207732679</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.0004066244902252566</v>
+        <v>0.000625418138209904</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -1874,28 +1874,28 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.005842187601184602</v>
+        <v>0.002938484881336129</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.006268174683736096</v>
+        <v>0.003370107040271893</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.01233003585673952</v>
+        <v>0.008670352396724744</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.000343792697960133</v>
+        <v>0.000241526023947911</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.001039227912983755</v>
+        <v>0.0004043984013617071</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.005844210915539117</v>
+        <v>0.002827775880676417</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.005717596542212876</v>
+        <v>0.002619975149235384</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.0004394075831478089</v>
+        <v>0.0006033733454539796</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
